--- a/Current ic interactability tables.xlsx
+++ b/Current ic interactability tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\Desktop\16 bit computer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\16 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D4F42-3FED-4B48-8C59-EE8EFAA75B55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87068C85-E212-46A6-9631-E132F4E920DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E97DF6E-FB14-4711-9B74-28C02402DDAB}"/>
   </bookViews>

--- a/Current ic interactability tables.xlsx
+++ b/Current ic interactability tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\16 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87068C85-E212-46A6-9631-E132F4E920DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0178D2F-7A23-43F2-8266-D1A7C804122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E97DF6E-FB14-4711-9B74-28C02402DDAB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t xml:space="preserve">quad and </t>
   </si>
@@ -423,49 +423,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC9E06E-D6EC-4AA9-B23F-A4DDC4C685AA}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>4.7</v>
       </c>
       <c r="E7">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>5.25</v>
       </c>
       <c r="E8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -479,8 +518,20 @@
         <f>OR(OR(AND(B9&gt;=$D$7, B9&lt;=$D$8), AND(C9&gt;=$D$7, C9&lt;=$D$8)), AND($D$7&gt;=B9,$D$7&lt;=C9))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="b">
+        <f>OR(OR(AND(B9&gt;=$E$7, B9&lt;=$E$8), AND(C9&gt;=$E$7, C9&lt;=$E$8)), AND($E$7&gt;=B9,$E$7&lt;=C9))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <f>OR(OR(AND(B9&gt;=$F$7, B9&lt;=$F$8), AND(C9&gt;=$F$7, C9&lt;=$F$8)), AND($F$7&gt;=B9,$F$7&lt;=C9))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f>OR(OR(AND(B9&gt;=$G$7, B9&lt;=$G$8), AND(C9&gt;=$G$7, C9&lt;=$G$8)), AND($G$7&gt;=B9,$G$7&lt;=C9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -491,11 +542,25 @@
         <v>5.5</v>
       </c>
       <c r="D10" t="b">
-        <f t="shared" ref="D10:D11" si="0">OR(OR(AND(B10&gt;=$D$7, B10&lt;=$D$8), AND(C10&gt;=$D$7, C10&lt;=$D$8)), AND($D$7&gt;=B10,$D$7&lt;=C10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f>OR(OR(AND(B10&gt;=$D$7, B10&lt;=$D$8), AND(C10&gt;=$D$7, C10&lt;=$D$8)), AND($D$7&gt;=B10,$D$7&lt;=C10))</f>
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <f>OR(OR(AND(B10&gt;=$E$7, B10&lt;=$E$8), AND(C10&gt;=$E$7, C10&lt;=$E$8)), AND($E$7&gt;=B10,$E$7&lt;=C10))</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" ref="F10:G13" si="0">OR(OR(AND(B10&gt;=$F$7, B10&lt;=$F$8), AND(C10&gt;=$F$7, C10&lt;=$F$8)), AND($F$7&gt;=B10,$F$7&lt;=C10))</f>
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" ref="G10:H13" si="1">OR(OR(AND(B10&gt;=$G$7, B10&lt;=$G$8), AND(C10&gt;=$G$7, C10&lt;=$G$8)), AND($G$7&gt;=B10,$G$7&lt;=C10))</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -506,36 +571,86 @@
         <v>5.2</v>
       </c>
       <c r="D11" t="b">
+        <f>OR(OR(AND(B11&gt;=$D$7, B11&lt;=$D$8), AND(C11&gt;=$D$7, C11&lt;=$D$8)), AND($D$7&gt;=B11,$D$7&lt;=C11))</f>
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" ref="E10:F13" si="2">OR(OR(AND(B11&gt;=$E$7, B11&lt;=$E$8), AND(C11&gt;=$E$7, C11&lt;=$E$8)), AND($E$7&gt;=B11,$E$7&lt;=C11))</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D12" t="b">
+        <f>OR(OR(AND(B12&gt;=$D$7, B12&lt;=$D$8), AND(C12&gt;=$D$7, C12&lt;=$D$8)), AND($D$7&gt;=B12,$D$7&lt;=C12))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D13" t="b">
+        <f>OR(OR(AND(B13&gt;=$D$7, B13&lt;=$D$8), AND(C13&gt;=$D$7, C13&lt;=$D$8)), AND($D$7&gt;=B13,$D$7&lt;=C13))</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
